--- a/result.xlsx
+++ b/result.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,45 +376,40 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Назначение</t>
+          <t>Кадастровый номер (земельного участка)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Кадастровый номер (земельного участка)</t>
+          <t>по документу</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>по документу</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>Дата проведения мероприятия</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>Дата проведения мероприятия</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>Результат</t>
         </is>
@@ -439,17 +434,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001004:26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>77:01:0001004:26</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -467,13 +462,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,17 +484,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001005:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77:01:0001005:29</t>
+          <t>эксплуатации части здания под ресторан</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под ресторан</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -514,21 +504,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>20.03.2020</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Объект (здание, строение, сооружение) фактически не используется в целях делового, административного или коммерческого назначения, фактически не используется для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -549,17 +542,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001006:17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77:01:0001006:17</t>
+          <t>эксплуатации здания банка и благоустройства территории</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>эксплуатации здания банка и благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -577,13 +570,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -604,20 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:08:0013004:1001</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77:08:0013004:1001</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>эксплуатация производственной базы (земельные участки, предназначенные для размещения производственных и административных зданий, строений, сооружений промышленности)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Да, ВФИ</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Да, ВФИ</t>
@@ -630,11 +618,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>30.06.2016</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -655,23 +646,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:08:0013001:60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77:08:0013001:60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>земельные участки, предназначенные для размещения производственных и административных зданий, строений, сооружений материально-технического снабжения, сбыта и заготовок (1.2.9)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -681,11 +672,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>22.06.2018</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -706,17 +700,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001010:62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>77:01:0001010:62</t>
+          <t>эксплуатации части здания в административных целях; эксплуатации части здания в административных целях</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>эксплуатации части здания в административных целях; эксплуатации части здания в административных целях</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -736,11 +730,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>25.09.2014</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,17 +758,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001010:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>77:01:0001010:51</t>
+          <t>объекты размещения организаций розничной торговли продовольственными, непродовольственными группами товаров (1.2.5), объекты размещения организаций общественного питания (1.2.5), объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>объекты размещения организаций розничной торговли продовольственными, непродовольственными группами товаров (1.2.5), объекты размещения организаций общественного питания (1.2.5), объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -781,7 +778,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -791,11 +788,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>21.12.2018</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Объект (здание, строение, сооружение) фактически не используется в целях делового, административного или коммерческого назначения, фактически не используется для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001016:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>77:01:0001016:39</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -844,13 +844,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -871,17 +866,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001016:18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>77:01:0001016:18</t>
+          <t>эксплуатации части здания под конструкторско-технологическое бюро</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под конструкторско-технологическое бюро</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -891,21 +886,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Да, ВФИ</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>25.04.2016</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -926,17 +924,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001018:1004</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>77:01:0001018:1004</t>
+          <t>земельные участки, предназначенные для размещения военных объектов (1.2.13), земельные участки, предназначенные для размещения административных и офисных зданий (1.2.7)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>земельные участки, предназначенные для размещения военных объектов (1.2.13), земельные участки, предназначенные для размещения административных и офисных зданий (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -954,13 +952,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -981,17 +974,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001019:2837</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77:01:0001019:2837</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения  (1.2.7)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения  (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1009,13 +1002,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1036,17 +1024,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001019:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>77:01:0001019:11</t>
+          <t>эксплуатации зданий поликлиники Российской Академии Медицинских наук</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>эксплуатации зданий поликлиники Российской Академии Медицинских наук</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1064,13 +1052,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1091,17 +1074,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001019:7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>77:01:0001019:7</t>
+          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); здравоохранение (3.4) (земельные участки, предназначенные для размещения административных зданий, объектов образования, науки, здравоохранения и социального обеспечения, физической культуры и спорта, культуры, искусства, религии (1.2.17))</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); здравоохранение (3.4) (земельные участки, предназначенные для размещения административных зданий, объектов образования, науки, здравоохранения и социального обеспечения, физической культуры и спорта, культуры, искусства, религии (1.2.17))</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1119,13 +1102,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1146,17 +1124,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001023:14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>77:09:0001023:14</t>
+          <t>эксплуатации книготорговой базы</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>эксплуатации книготорговой базы</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1176,11 +1154,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>21.08.2014</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,17 +1182,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001026:68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>77:09:0001026:68</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1229,13 +1210,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1256,17 +1232,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001026:68</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>77:09:0001026:68</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1284,13 +1260,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1311,17 +1282,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001026:68</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>77:09:0001026:68</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1339,13 +1310,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1366,17 +1332,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001026:68</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>77:09:0001026:68</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1394,13 +1360,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1421,17 +1382,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001026:68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>77:09:0001026:68</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.3/1.2.9/1.2.13/1.2.7/1.2.10)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1449,13 +1410,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1476,17 +1432,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001027:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>77:09:0001027:36</t>
+          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.7/1.2.9)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>участки смешанного размещения общественно-деловых и производственных объектов (1.2.7/1.2.9)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1504,13 +1460,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1531,17 +1482,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001028:14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>77:09:0001028:14</t>
+          <t>ЭКСПЛУАТАЦИИ НАУЧНО-ИССЛЕДОВАТЕЛЬСКОГО ИНСТИТУТА</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ЭКСПЛУАТАЦИИ НАУЧНО-ИССЛЕДОВАТЕЛЬСКОГО ИНСТИТУТА</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1559,13 +1510,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1586,17 +1532,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:09:0001029:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>77:09:0001029:53</t>
+          <t>эксплуатации административно-производственных зданий</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>эксплуатации административно-производственных зданий</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1611,16 +1557,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>18.12.2018</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1641,17 +1590,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001020:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>77:01:0001020:50</t>
+          <t>эксплуатации здания в административных целях</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>эксплуатации здания в административных целях</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1671,11 +1620,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>30.08.2019</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1696,17 +1648,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001020:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>77:01:0001020:55</t>
+          <t>эксплуатации зданий историко-культурного назначения</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>эксплуатации зданий историко-культурного назначения</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1724,13 +1676,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1751,33 +1698,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001020:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>77:01:0001020:20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>Здравоохранение (3.4). Деловое управление (4.1). Историко-культурная деятельность (9.3).</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1798,21 +1740,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001020:1752</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>77:01:0001020:1752</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>объекты размещения станций скорой и неотложной помощи (1.2.17)</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
@@ -1820,11 +1762,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>30.08.2019</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1845,17 +1790,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001021:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>77:01:0001021:17</t>
+          <t>эксплуатации части здания в административных целях; эксплуатации части здания в административных целях.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>эксплуатации части здания в административных целях; эксплуатации части здания в административных целях.</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1873,13 +1818,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1900,17 +1840,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001021:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>77:01:0001021:13</t>
+          <t>малоэтажная многоквартирная жилая застройка (2.1.1); деловое управление (4.1); магазины (4.4); банковская и страховая деятельность (4.5)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>малоэтажная многоквартирная жилая застройка (2.1.1); деловое управление (4.1); магазины (4.4); банковская и страховая деятельность (4.5)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1928,13 +1868,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1955,17 +1890,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001022:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>77:01:0001022:59</t>
+          <t>эксплуатации здания под административные цели</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1983,13 +1918,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2010,17 +1940,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001024:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>77:01:0001024:42</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2038,13 +1968,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2065,17 +1990,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001024:3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>77:01:0001024:3</t>
+          <t>объекты размещения административно-деловых объектов (1.2.7)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>объекты размещения административно-деловых объектов (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2093,13 +2018,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2120,17 +2040,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001024:18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>77:01:0001024:18</t>
+          <t>для эксплуатации здания под офис</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>для эксплуатации здания под офис</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2150,11 +2070,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>25.09.2017</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2175,17 +2098,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001024:3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>77:01:0001024:3</t>
+          <t>объекты размещения административно-деловых объектов (1.2.7)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>объекты размещения административно-деловых объектов (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2203,13 +2126,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2230,17 +2148,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001024:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>77:01:0001024:54</t>
+          <t>эксплуатации здания под административные цели</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2258,13 +2176,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2285,17 +2198,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001026:2412</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>77:01:0001026:2412</t>
+          <t>объекты размещения научных, исследовательских центров (1.2.7)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>объекты размещения научных, исследовательских центров (1.2.7)</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2315,11 +2228,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>07.10.2014</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2340,17 +2256,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001026:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>77:01:0001026:48</t>
+          <t>эксплуатации зданий историко-культурного назначения</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>эксплуатации зданий историко-культурного назначения</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2368,13 +2284,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2395,33 +2306,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001027:3629</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>77:01:0001027:3629</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>земельные участки, предназначенные для размещения гаражей (1.2.3)</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2442,17 +2348,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001029:4565</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>77:01:0001029:4565</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2472,11 +2378,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>30.08.2019</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Объект (здание, строение, сооружение) фактически не используется в целях делового, административного или коммерческого назначения, фактически не используется для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2497,17 +2406,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001029:66</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>77:01:0001029:66</t>
+          <t>эксплуатации здания под административные цели</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2525,13 +2434,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2552,17 +2456,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001029:60</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>77:01:0001029:60</t>
+          <t>эксплуатации зданий историко-культурного назначения</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>эксплуатации зданий историко-культурного назначения</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2582,11 +2486,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>11.09.2017</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2607,17 +2514,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001031:9</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>77:01:0001031:9</t>
+          <t>благоустройства территории</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2635,13 +2542,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2662,17 +2564,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001032:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>77:01:0001032:16</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7); участки размещения жилищно-коммунальных объектов: объекты размещения помещений гаражей боксового типа (1.2.3)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7); участки размещения жилищно-коммунальных объектов: объекты размещения помещений гаражей боксового типа (1.2.3)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2690,13 +2592,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2717,17 +2614,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001032:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>77:01:0001032:16</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7); участки размещения жилищно-коммунальных объектов: объекты размещения помещений гаражей боксового типа (1.2.3)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7); участки размещения жилищно-коммунальных объектов: объекты размещения помещений гаражей боксового типа (1.2.3)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2745,13 +2642,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2772,17 +2664,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001033:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>77:01:0001033:21</t>
+          <t>эксплуатации административных зданий и благоустройства территории</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>эксплуатации административных зданий и благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2800,13 +2692,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2827,17 +2714,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001033:3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>77:01:0001033:3</t>
+          <t>эксплуатации здания в административных целях</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>эксплуатации здания в административных целях</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2855,13 +2742,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2882,17 +2764,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001034:62</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>77:01:0001034:62</t>
+          <t>эксплуатации здания под административные цели</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2910,13 +2792,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2937,17 +2814,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001034:2678</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>77:01:0001034:2678</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2967,11 +2844,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>29.08.2019</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Объект (здание, строение, сооружение) фактически не используется в целях делового, административного или коммерческого назначения, фактически не используется для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2992,17 +2872,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001035:1880</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>77:01:0001035:1880</t>
+          <t>обеспечение вооруженных сил (8.1) (земельные участки, предназначенные для разработки полезных ископаемых, размещения железнодорожных путей, автомобильных дорог, искусственно созданных внутренних водных путей, причалов, пристаней, полос отвода железных и автомобильных дорог, водных путей, трубопроводов, кабельных, радиорелейных и воздушных линий связи и линий радиофикации, воздушных линий электропередачи конструктивных элементов и сооружений, объектов, необходимых для эксплуатации, содержания, строительства, реконструкции, ремонта, развития наземных и подземных зданий, строений, сооружений, устройств транспорта, энергетики и связи; размещения наземных сооружений и инфраструктуры спутниковой связи, объектов космической деятельности, военных объектов (1.2.13)); деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); магазины (4.4) (земельные участки, предназначенные для размещения объектов торговли, общественного питания и бытового обслуживания (1.2.5))</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>обеспечение вооруженных сил (8.1) (земельные участки, предназначенные для разработки полезных ископаемых, размещения железнодорожных путей, автомобильных дорог, искусственно созданных внутренних водных путей, причалов, пристаней, полос отвода железных и автомобильных дорог, водных путей, трубопроводов, кабельных, радиорелейных и воздушных линий связи и линий радиофикации, воздушных линий электропередачи конструктивных элементов и сооружений, объектов, необходимых для эксплуатации, содержания, строительства, реконструкции, ремонта, развития наземных и подземных зданий, строений, сооружений, устройств транспорта, энергетики и связи; размещения наземных сооружений и инфраструктуры спутниковой связи, объектов космической деятельности, военных объектов (1.2.13)); деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); магазины (4.4) (земельные участки, предназначенные для размещения объектов торговли, общественного питания и бытового обслуживания (1.2.5))</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3022,11 +2902,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>20.10.2014</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3047,17 +2930,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001036:66</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>77:01:0001036:66</t>
+          <t>эксплуатации части здания под административные цели</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3075,13 +2958,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3102,17 +2980,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001037:1002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>77:01:0001037:1002</t>
+          <t>земельные участки, предназначенные для размещения объектов образования и социального обеспечения (1.2.7)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>земельные участки, предназначенные для размещения объектов образования и социального обеспечения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3130,13 +3008,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3157,17 +3030,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001039:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>77:01:0001039:48</t>
+          <t>эксплуатации здания для культурно-просветительской деятельности</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>эксплуатации здания для культурно-просветительской деятельности</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3187,11 +3060,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>16.03.2020</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется одновременно как для целей делового, административного или коммерческого назначения, так и для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3212,17 +3088,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001039:62</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>77:01:0001039:62</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3242,11 +3118,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>25.09.2014</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3267,17 +3146,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001040:67</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>77:01:0001040:67</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3287,21 +3166,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>Да, ВФИ</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>02.06.2015</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Объект (нежилое помещение) фактически используется для размещения офисов, торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3322,17 +3204,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001044:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>77:01:0001044:54</t>
+          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); историко-культурная деятельность (9.3) (земельные участки, предназначенные для размещения административных зданий, объектов образования, науки, здравоохранения и социального обеспечения, физической культуры и спорта, культуры, искусства, религии (1.2.17))</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7)); историко-культурная деятельность (9.3) (земельные участки, предназначенные для размещения административных зданий, объектов образования, науки, здравоохранения и социального обеспечения, физической культуры и спорта, культуры, искусства, религии (1.2.17))</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3350,13 +3232,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3377,20 +3254,20 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001044:16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>77:01:0001044:16</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>общественное управление (3.8) (земельные участки, предназначенные для размещения административных зданий, объектов образования, науки, здравоохранения и социального обеспечения, физической культуры и спорта, культуры, искусства, религии (1.2.17))</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
@@ -3401,13 +3278,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3428,17 +3300,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001045:91</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>77:01:0001045:91</t>
+          <t>эксплуатации зданий под административные цели</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>эксплуатации зданий под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3456,13 +3328,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3483,17 +3350,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001045:3208</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>77:01:0001045:3208</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3511,13 +3378,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3538,17 +3400,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001046:85</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>77:01:0001046:85</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3566,13 +3428,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3593,17 +3450,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001049:94</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>77:01:0001049:94</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3621,13 +3478,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3648,17 +3500,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001050:15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>77:01:0001050:15</t>
+          <t>эксплуатации административного здания</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3676,13 +3528,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3703,17 +3550,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001050:87</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>77:01:0001050:87</t>
+          <t>размещения посольства и представительства</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>размещения посольства и представительства</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3731,13 +3578,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3758,17 +3600,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001050:100</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>77:01:0001050:100</t>
+          <t>земельные участки, предназначенные для размещения административных и офисных зданий (1.2.7)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>земельные участки, предназначенные для размещения административных и офисных зданий (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3786,13 +3628,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3813,17 +3650,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001050:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>77:01:0001050:55</t>
+          <t>эксплуатации административного здания и благоустройства территории</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания и благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3841,13 +3678,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3868,20 +3700,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001050:106</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>77:01:0001050:106</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
@@ -3892,13 +3724,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3919,17 +3746,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001055:9</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>77:01:0001055:9</t>
+          <t>благоустройства территории прочих административно-управленческих учреждений и общественных организаций</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>благоустройства территории прочих административно-управленческих учреждений и общественных организаций</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3947,13 +3774,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3974,17 +3796,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001055:9</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>77:01:0001055:9</t>
+          <t>благоустройства территории прочих административно-управленческих учреждений и общественных организаций</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>благоустройства территории прочих административно-управленческих учреждений и общественных организаций</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4004,11 +3826,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+          <t>15.09.2014</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,22 +3854,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001055:3311</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>77:01:0001055:3311</t>
+          <t>среднеэтажная жилая застройка (2.5) (земельные участки, предназначенные для размещения домов среднеэтажной и многоэтажной жилой застройки (1.2.1)); обслуживание автотранспорта (4.9) (земельные участки, предназначенные для размещения гаражей и автостоянок (1.2.3))</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>среднеэтажная жилая застройка (2.5) (земельные участки, предназначенные для размещения домов среднеэтажной и многоэтажной жилой застройки (1.2.1)); обслуживание автотранспорта (4.9) (земельные участки, предназначенные для размещения гаражей и автостоянок (1.2.3))</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4059,11 +3884,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>15.09.2014</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4084,17 +3912,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001056:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>77:01:0001056:39</t>
+          <t>эксплуатации административного здания.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания.</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4112,13 +3940,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4139,17 +3962,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001056:1002</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>77:01:0001056:1002</t>
+          <t>земельные участки, предназначенные для размещения гаражей (1.2.3)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>земельные участки, предназначенные для размещения гаражей (1.2.3)</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4159,7 +3982,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4169,11 +3992,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+          <t>13.04.2018</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4194,17 +4020,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001057:3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>77:01:0001057:3</t>
+          <t>ЭКСПЛУАТАЦИИ ЗДАНИЯ ПОД  АДМИНИСТРАТИВНЫЕ ЦЕЛИ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ЭКСПЛУАТАЦИИ ЗДАНИЯ ПОД  АДМИНИСТРАТИВНЫЕ ЦЕЛИ</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4222,13 +4048,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4249,17 +4070,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001059:82</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>77:01:0001059:82</t>
+          <t>эксплуатации части здания под административные помещения; эксплуатации помещений в здании под лечебные медицинские цели</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под административные помещения; эксплуатации помещений в здании под лечебные медицинские цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4277,13 +4098,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4304,22 +4120,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001061:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>77:01:0001061:13</t>
+          <t>эксплуатации прочих административно-управленческих учреждений и общественных организаций</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>эксплуатации прочих административно-управленческих учреждений и общественных организаций</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4334,11 +4150,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+          <t>27.03.2017</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4359,17 +4178,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001062:126</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>77:01:0001062:126</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4387,13 +4206,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4414,22 +4228,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001062:3788</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>77:01:0001062:3788</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4442,13 +4256,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4469,17 +4278,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001063:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>77:01:0001063:48</t>
+          <t>эксплуатации административного здания и благоустройства территории</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания и благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4497,13 +4306,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4524,17 +4328,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001063:106</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>77:01:0001063:106</t>
+          <t>эксплуатации зданий под административные цели</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>эксплуатации зданий под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4552,13 +4356,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4579,17 +4378,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001065:10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>77:01:0001065:10</t>
+          <t>эксплуатации прочих административно-управленческих учреждений и общественных организации</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>эксплуатации прочих административно-управленческих учреждений и общественных организации</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4609,11 +4408,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>25.05.2018</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4634,17 +4436,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001066:33</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>77:01:0001066:33</t>
+          <t>размещения посольства и представительства</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>размещения посольства и представительства</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4654,21 +4456,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+          <t>21.12.2018</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4689,17 +4494,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001071:62</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>77:01:0001071:62</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4717,13 +4522,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4744,17 +4544,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001072:38</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>77:01:0001072:38</t>
+          <t>эксплуатации административного здания.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания.</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4772,13 +4572,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4799,17 +4594,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001076:47</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>77:01:0001076:47</t>
+          <t>эксплуатации здания под административные цели и благоустройства территории</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели и благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4827,13 +4622,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4854,17 +4644,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001078:78</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>77:01:0001078:78</t>
+          <t>эксплуатации зданий в административных целях</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>эксплуатации зданий в административных целях</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4882,13 +4672,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4909,17 +4694,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001078:4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>77:01:0001078:4</t>
+          <t>эксплуатации существующего административного здания</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>эксплуатации существующего административного здания</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4939,11 +4724,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+          <t>15.05.2020</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется одновременно как для целей делового, административного или коммерческого назначения, так и для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4964,17 +4752,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001078:75</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>77:01:0001078:75</t>
+          <t>эксплуатации гаража (в габаритах здания)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>эксплуатации гаража (в габаритах здания)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4992,13 +4780,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5019,17 +4802,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001082:102</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>77:01:0001082:102</t>
+          <t>эксплуатации здания под административные цели</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>эксплуатации здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5049,11 +4832,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+          <t>22.09.2017</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется одновременно как для целей делового, административного или коммерческого назначения, так и для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5074,17 +4860,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001084:107</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>77:01:0001084:107</t>
+          <t>эксплуатации улично-дорожной сети</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>эксплуатации улично-дорожной сети</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5102,13 +4888,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5129,17 +4910,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001086:54</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>77:01:0001086:54</t>
+          <t>эксплуатации зданий историко-культурного назначения</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>эксплуатации зданий историко-культурного назначения</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5159,11 +4940,14 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+          <t>13.10.2014</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>подлежит налогообложению</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5184,17 +4968,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001088:68</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>77:01:0001088:68</t>
+          <t>эксплуатации части здания под административные цели</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5212,13 +4996,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5239,17 +5018,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001089:65</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>77:01:0001089:65</t>
+          <t>благоустройства территории; благоустройства территории</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>благоустройства территории; благоустройства территории</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5267,13 +5046,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5294,17 +5068,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001089:77</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>77:01:0001089:77</t>
+          <t>эксплуатации административного здания</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>эксплуатации административного здания</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5324,11 +5098,14 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+          <t>01.09.2017</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Объект (здание, строение, сооружение) фактически не используется в целях делового, административного или коммерческого назначения, фактически не используется для размещения торговых объектов, объектов общественного питания и (или) бытового обслуживания</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5349,17 +5126,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001090:1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>77:01:0001090:1</t>
+          <t>реконструкции здания и  его последующей эксплуатации под административные цели</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>реконструкции здания и  его последующей эксплуатации под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5377,13 +5154,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5404,33 +5176,28 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001094:29</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>77:01:0001094:29</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
           <t>эксплуатации части здания в административных целях; эксплуатации части здания под туристическое агентство</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Да, ВРИ ЗУ</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5451,17 +5218,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001094:1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>77:01:0001094:1</t>
+          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7))</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>деловое управление (4.1) (земельные участки, предназначенные для размещения офисных зданий делового и коммерческого назначения (1.2.7))</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5479,13 +5246,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5506,17 +5268,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001094:2705</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>77:01:0001094:2705</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5534,13 +5296,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5561,17 +5318,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0001095:10</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>77:01:0001095:10</t>
+          <t>БЛАГОУСТРОЙСТВА ТЕРРИТОРИИ, С СОХРАНЕНИЕМ ПОЖАРНОГО ПРОЕЗДА, ВНУТРИКВАРТАЛЬНОГО ПРОЕЗДА, БЕЗ ПРАВА КОММЕРЧЕСКОГО ИСПОЛЬЗОВАНИЯ ЗЕМЕЛЬНОГО УЧА</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>БЛАГОУСТРОЙСТВА ТЕРРИТОРИИ, С СОХРАНЕНИЕМ ПОЖАРНОГО ПРОЕЗДА, ВНУТРИКВАРТАЛЬНОГО ПРОЕЗДА, БЕЗ ПРАВА КОММЕРЧЕСКОГО ИСПОЛЬЗОВАНИЯ ЗЕМЕЛЬНОГО УЧА</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5589,13 +5346,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5616,17 +5368,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0002003:3859</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>77:01:0002003:3859</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5644,13 +5396,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5671,22 +5418,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0006003:2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>77:01:0006003:2</t>
+          <t>среднеэтажная жилая застройка (2.5) (земельные участки, предназначенные для размещения домов среднеэтажной и многоэтажной жилой застройки (1.2.1))</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>среднеэтажная жилая застройка (2.5) (земельные участки, предназначенные для размещения домов среднеэтажной и многоэтажной жилой застройки (1.2.1))</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да, ВФИ</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5701,11 +5448,14 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Да, ВФИ</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+          <t>13.09.2017</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Объект (здание (строение, сооружение) фактически используется в целях делового, административного или коммерческого назначения</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5726,17 +5476,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0002004:70</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>77:01:0002004:70</t>
+          <t>проектирования в 2004г., строительства в 2004-2005 гг. и последующей эксплуатации административного здания общей площадью 1513,5 кв.м (в т.ч. 1198,8 кв.м - наземная)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>проектирования в 2004г., строительства в 2004-2005 гг. и последующей эксплуатации административного здания общей площадью 1513,5 кв.м (в т.ч. 1198,8 кв.м - наземная)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5754,13 +5504,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5781,17 +5526,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0002005:64</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>77:01:0002005:64</t>
+          <t>эксплуатации части здания под административные цели; эксплуатации части здания под административные цели</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>эксплуатации части здания под административные цели; эксплуатации части здания под административные цели</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5809,13 +5554,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5836,17 +5576,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Нежилое здание</t>
+          <t>77:01:0002006:4383</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>77:01:0002006:4383</t>
+          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>объекты размещения коммерческих организаций, не связанных с проживанием населения (1.2.7)</t>
+          <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5864,13 +5604,8 @@
           <t>Да, ВРИ ЗУ</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Да, ВРИ ЗУ</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
